--- a/biology/Botanique/Luzule_nivale/Luzule_nivale.xlsx
+++ b/biology/Botanique/Luzule_nivale/Luzule_nivale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luzula nivea
 La Luzule nivale (Luzula nivea), également appelée Luzule blanc de neige ou Luzule couleur de neige, est une plante herbacée vivace du genre Luzula et de la famille des Juncaceae.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clairières, bois clairs et humides. La Luzule nivale est une plante montagnarde qu'on rencontre en particulier en lisière et dans les clairières des hêtraies et des hêtraies-sapinières d'altitude.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes, Massif central, Pyrénées, nord des Apennins.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, persistante,  bien rustique, à port légèrement étalé, formant une touffe légère. Jusqu'à 60 cm de hauteur et d'un étalement d'environ 45cm. Bouquets de feuilles basales étalées, de 10 à 30 cm de long, vert foncé. Feuilles caulinaires de 5 à 20 cm de long. Floraison de panicules retombantes en juin/juillet. Les fleurs sont blanc pur, luisantes et regroupées par vingt environ, en bouquets serrés.
 </t>
@@ -605,7 +623,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut convenir pour la réalisation de bouquets secs. Elle est cultivée comme plante d'ornement.
 </t>
